--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1507,7 +1507,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
-    &lt;code value="nowRating"/&gt;
+    &lt;code value="now-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1555,7 +1555,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
-    &lt;code value="nowReasons"/&gt;
+    &lt;code value="now-reasons"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1599,7 +1599,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
-    &lt;code value="futureRating"/&gt;
+    &lt;code value="future-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1640,7 +1640,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
-    &lt;code value="futureChanges"/&gt;
+    &lt;code value="future-changes"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -698,7 +698,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1506,7 +1506,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="now-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1554,7 +1554,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="now-reasons"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1598,7 +1598,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="future-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1639,7 +1639,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="future-changes"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -272,14 +272,14 @@
 </t>
   </si>
   <si>
-    <t>Survey Observation</t>
+    <t>assessment observation</t>
   </si>
   <si>
     <t>\-</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}us-core-3:SHALL use UCUM for coded quantity units. {value.ofType(Quantity).system.empty() or value.ofType(Quantity).system = 'http://unitsofmeasure.org'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -622,7 +622,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -644,39 +644,31 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Observation.category:us-core</t>
+  </si>
+  <si>
+    <t>us-core</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+  </si>
+  <si>
     <t>Observation.category:survey</t>
   </si>
   <si>
     <t>survey</t>
   </si>
   <si>
-    <t>Used for filtering if the observation is an assessment or screening.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="survey"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.category:screening-assessment</t>
-  </si>
-  <si>
-    <t>screening-assessment</t>
-  </si>
-  <si>
-    <t>Categories that a provider may use in their workflow to classify that this Observation is related to a USCDI Health Status/Assessments Data Class.</t>
-  </si>
-  <si>
-    <t>Used for filtering the type of screening or assessment observation.</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
+    <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -827,14 +819,6 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {$this is DateTime implies $this.toString().length() &gt;= 10}</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -885,9 +869,6 @@
     <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
-    <t>Some questions on questionnaires are not answered directly (e.g., asserted) by the individual completing the questionnaire, but are derived from answers to one or more other questions. For types of answers, `Observation.performer` should not be specified and `Observation.derivedFrom` should reference the relevant Screening Response Observation(s).</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -916,14 +897,14 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have a value if it represents an individual survey, screening, or assessment question and answer pair. An observation should not have a value if it represents a multi-question or multi-select “check all that apply” responses. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -941,13 +922,14 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>(USCDI) Why the result is missing</t>
+    <t>Why the result is missing</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values. For a given LOINC question, if the LOINC answer list includes concepts such as 'unknown' or 'not available', they should be used for Observation.value. Where these concepts are not part of the value set for Observation.value, the Observation.dataAbsentReason can be used if necessary and appropriate.</t>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
@@ -962,8 +944,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1345,17 +1327,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) Reference to panel members or multi-select responses or multi-select responses</t>
-  </si>
-  <si>
-    <t>Aggregate set of Observations that represent question answer pairs for both multi-question surveys, screenings, and assessments and multi-select questions.</t>
-  </si>
-  <si>
-    <t>This grouping element is used to represent surveys, screenings, and assessments that group several questions together or individual questions with  “check all that apply” responses. For example in the simplest case a flat multi-question survey where the "panel" observation is the survey instrument itself and instead of an `Observation.value` the `hasMember` element references other Observation that represent the individual questions answer pairs. When there is a heirarchical grouping of questions, the observation "panels" can be nested. Because surveys, screenings, and assessments can be arbitrarily complex structurally, not all structures can be represented using this Observation grouping pattern.</t>
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1367,14 +1349,14 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|ImagingStudy|Media|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) Related Observation(s) or other resource the observation is made from</t>
-  </si>
-  <si>
-    <t>Observations or or other resource such as a QuestionnaireResponse from which this observation value is derived.</t>
+    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
+  </si>
+  <si>
+    <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
@@ -1462,10 +1444,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1519,7 +1497,7 @@
 </t>
   </si>
   <si>
-    <t>Rating on scale of 1 (low) to 10 (high)</t>
+    <t>Rating on scale from low to high</t>
   </si>
   <si>
     <t>Observation.component:nowRating.dataAbsentReason</t>
@@ -1985,7 +1963,7 @@
   <cols>
     <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2008,7 +1986,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3851,10 +3829,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3888,28 +3866,28 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3962,23 +3940,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3996,7 +3974,7 @@
         <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>193</v>
@@ -4029,11 +4007,9 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4086,14 +4062,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4115,16 +4091,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4153,7 +4129,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4171,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4186,30 +4162,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4232,19 +4208,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4293,7 +4269,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4308,19 +4284,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4328,10 +4304,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4354,16 +4330,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4413,7 +4389,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4434,13 +4410,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4448,14 +4424,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4474,19 +4450,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4535,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4550,19 +4526,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4570,14 +4546,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4596,19 +4572,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4657,7 +4633,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4666,25 +4642,25 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4692,10 +4668,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4718,16 +4694,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4777,7 +4753,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4798,13 +4774,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4812,10 +4788,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4838,19 +4814,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4899,7 +4873,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4914,19 +4888,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4934,10 +4908,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4960,19 +4934,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5021,7 +4995,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5030,7 +5004,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -5039,27 +5013,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5073,7 +5047,7 @@
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
@@ -5085,16 +5059,16 @@
         <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5119,13 +5093,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5143,7 +5117,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5152,7 +5126,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -5167,7 +5141,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5178,14 +5152,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5207,16 +5181,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5241,13 +5215,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5265,7 +5239,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5283,27 +5257,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5326,19 +5300,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5387,7 +5361,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5408,10 +5382,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5422,10 +5396,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5451,13 +5425,13 @@
         <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5483,13 +5457,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5507,7 +5481,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5525,27 +5499,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5571,16 +5545,16 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5605,13 +5579,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5629,7 +5603,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5650,10 +5624,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5664,10 +5638,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5690,16 +5664,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5749,7 +5723,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5767,27 +5741,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5810,16 +5784,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5869,7 +5843,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5887,27 +5861,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5930,19 +5904,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5991,7 +5965,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6003,7 +5977,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6012,10 +5986,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6026,10 +6000,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6052,13 +6026,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6109,7 +6083,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6133,7 +6107,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6144,10 +6118,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6176,7 +6150,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6229,7 +6203,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6253,7 +6227,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6264,14 +6238,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6293,10 +6267,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6351,7 +6325,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6386,10 +6360,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6412,13 +6386,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6469,7 +6443,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6478,7 +6452,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6490,10 +6464,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6504,10 +6478,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6530,13 +6504,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6587,7 +6561,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6596,7 +6570,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6608,10 +6582,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6622,10 +6596,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6651,16 +6625,16 @@
         <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6688,10 +6662,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6709,7 +6683,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6727,13 +6701,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6744,10 +6718,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6773,16 +6747,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6807,13 +6781,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6831,7 +6805,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6849,13 +6823,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6866,10 +6840,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6892,17 +6866,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6951,7 +6925,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6975,7 +6949,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6986,10 +6960,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7012,13 +6986,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7069,7 +7043,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7090,10 +7064,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7104,10 +7078,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7121,7 +7095,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7130,16 +7104,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7189,7 +7163,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7210,10 +7184,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7224,10 +7198,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7241,7 +7215,7 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7250,16 +7224,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7309,7 +7283,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7330,10 +7304,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7344,10 +7318,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7370,19 +7344,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7419,7 +7393,7 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7429,7 +7403,7 @@
         <v>198</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7450,10 +7424,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7464,10 +7438,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7490,13 +7464,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7547,7 +7521,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7571,7 +7545,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7582,10 +7556,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7614,7 +7588,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7667,7 +7641,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7691,7 +7665,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7702,14 +7676,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7731,10 +7705,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7789,7 +7763,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7824,10 +7798,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7853,16 +7827,16 @@
         <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7887,13 +7861,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7911,7 +7885,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7929,16 +7903,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7946,10 +7920,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7972,19 +7946,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8033,7 +8007,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8051,27 +8025,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8097,16 +8071,16 @@
         <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8131,13 +8105,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8155,7 +8129,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8164,7 +8138,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8179,7 +8153,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8190,14 +8164,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8219,16 +8193,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8253,13 +8227,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8277,7 +8251,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8295,27 +8269,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8341,16 +8315,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8399,7 +8373,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8420,10 +8394,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8434,13 +8408,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
@@ -8462,19 +8436,19 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8523,7 +8497,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8544,10 +8518,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8558,10 +8532,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8584,13 +8558,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8641,7 +8615,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8665,7 +8639,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8676,10 +8650,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8708,7 +8682,7 @@
         <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>141</v>
@@ -8761,7 +8735,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8785,7 +8759,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8796,14 +8770,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8825,10 +8799,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>141</v>
@@ -8883,7 +8857,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8918,10 +8892,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8947,16 +8921,16 @@
         <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8966,7 +8940,7 @@
         <v>82</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>82</v>
@@ -8981,13 +8955,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9005,7 +8979,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>92</v>
@@ -9023,16 +8997,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9040,10 +9014,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9066,19 +9040,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9127,7 +9101,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9145,27 +9119,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9191,16 +9165,16 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9225,13 +9199,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9249,7 +9223,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9258,7 +9232,7 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>104</v>
@@ -9273,7 +9247,7 @@
         <v>135</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9284,14 +9258,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9313,16 +9287,16 @@
         <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9347,13 +9321,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9371,7 +9345,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9389,27 +9363,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9435,16 +9409,16 @@
         <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9493,7 +9467,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9514,10 +9488,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9528,13 +9502,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>82</v>
@@ -9556,19 +9530,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9617,7 +9591,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9638,10 +9612,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9652,10 +9626,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9678,13 +9652,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9735,7 +9709,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9759,7 +9733,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9770,10 +9744,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9802,7 +9776,7 @@
         <v>139</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>141</v>
@@ -9855,7 +9829,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9879,7 +9853,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9890,14 +9864,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9919,10 +9893,10 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>141</v>
@@ -9977,7 +9951,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10012,10 +9986,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10041,16 +10015,16 @@
         <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10060,7 +10034,7 @@
         <v>82</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>82</v>
@@ -10075,13 +10049,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10099,7 +10073,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>92</v>
@@ -10117,16 +10091,16 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10134,10 +10108,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10160,19 +10134,19 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10221,7 +10195,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10239,27 +10213,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10285,16 +10259,16 @@
         <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10319,13 +10293,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10343,7 +10317,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10352,7 +10326,7 @@
         <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10367,7 +10341,7 @@
         <v>135</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10378,14 +10352,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10407,16 +10381,16 @@
         <v>190</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10441,13 +10415,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10465,7 +10439,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10483,27 +10457,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10529,16 +10503,16 @@
         <v>83</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10587,7 +10561,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10608,10 +10582,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10622,13 +10596,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>82</v>
@@ -10650,19 +10624,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10711,7 +10685,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10732,10 +10706,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10746,10 +10720,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10772,13 +10746,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10829,7 +10803,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10853,7 +10827,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10864,10 +10838,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10896,7 +10870,7 @@
         <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>141</v>
@@ -10949,7 +10923,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10973,7 +10947,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10984,14 +10958,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11013,10 +10987,10 @@
         <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>141</v>
@@ -11071,7 +11045,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11106,10 +11080,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11135,16 +11109,16 @@
         <v>190</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11154,7 +11128,7 @@
         <v>82</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>82</v>
@@ -11169,13 +11143,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11193,7 +11167,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11211,16 +11185,16 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11228,10 +11202,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11254,19 +11228,19 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11315,7 +11289,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11333,27 +11307,27 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11379,16 +11353,16 @@
         <v>190</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11413,13 +11387,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11437,7 +11411,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11446,7 +11420,7 @@
         <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>104</v>
@@ -11461,7 +11435,7 @@
         <v>135</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11472,14 +11446,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11501,16 +11475,16 @@
         <v>190</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11535,13 +11509,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11559,7 +11533,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11577,27 +11551,27 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11623,16 +11597,16 @@
         <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11681,7 +11655,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11702,10 +11676,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11716,13 +11690,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>82</v>
@@ -11744,19 +11718,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11805,7 +11779,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11826,10 +11800,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11840,10 +11814,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11866,13 +11840,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11923,7 +11897,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11947,7 +11921,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -11958,10 +11932,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11990,7 +11964,7 @@
         <v>139</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>141</v>
@@ -12043,7 +12017,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12067,7 +12041,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12078,14 +12052,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12107,10 +12081,10 @@
         <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>141</v>
@@ -12165,7 +12139,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12200,10 +12174,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12229,16 +12203,16 @@
         <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12248,7 +12222,7 @@
         <v>82</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>82</v>
@@ -12263,13 +12237,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12287,7 +12261,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>92</v>
@@ -12305,16 +12279,16 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
@@ -12322,10 +12296,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12348,19 +12322,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12409,7 +12383,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12427,27 +12401,27 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12473,16 +12447,16 @@
         <v>190</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12507,13 +12481,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12531,7 +12505,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12540,7 +12514,7 @@
         <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>104</v>
@@ -12555,7 +12529,7 @@
         <v>135</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12566,14 +12540,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12595,16 +12569,16 @@
         <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12629,13 +12603,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12653,7 +12627,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12671,27 +12645,27 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12717,16 +12691,16 @@
         <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12775,7 +12749,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12796,10 +12770,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
@@ -4007,9 +4010,11 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4062,14 +4067,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4091,16 +4096,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4129,7 +4134,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4147,7 +4152,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4162,30 +4167,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4208,19 +4213,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4269,7 +4274,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4284,19 +4289,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4304,10 +4309,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4330,16 +4335,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4389,7 +4394,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4410,13 +4415,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4424,14 +4429,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4450,19 +4455,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4511,7 +4516,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4526,19 +4531,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4546,14 +4551,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4572,19 +4577,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4633,7 +4638,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4648,19 +4653,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4668,10 +4673,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4694,16 +4699,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4753,7 +4758,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4774,13 +4779,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4788,10 +4793,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4814,17 +4819,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4873,7 +4878,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4888,19 +4893,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4908,10 +4913,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4934,19 +4939,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4995,7 +5000,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5004,7 +5009,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -5013,27 +5018,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5059,16 +5064,16 @@
         <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5093,13 +5098,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5117,7 +5122,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5126,7 +5131,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -5141,7 +5146,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5152,14 +5157,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5181,16 +5186,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5215,13 +5220,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5239,7 +5244,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5257,27 +5262,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5300,19 +5305,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5361,7 +5366,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5382,10 +5387,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5396,10 +5401,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5425,13 +5430,13 @@
         <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5457,13 +5462,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5481,7 +5486,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5499,27 +5504,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5545,16 +5550,16 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5579,13 +5584,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5603,7 +5608,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5624,10 +5629,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5638,10 +5643,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5664,16 +5669,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5723,7 +5728,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5741,27 +5746,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5784,16 +5789,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5843,7 +5848,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5861,27 +5866,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5904,19 +5909,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5965,7 +5970,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5977,7 +5982,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5986,10 +5991,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6000,10 +6005,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6026,13 +6031,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6083,7 +6088,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6107,7 +6112,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6118,10 +6123,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6150,7 +6155,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6203,7 +6208,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6227,7 +6232,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6238,14 +6243,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6267,10 +6272,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6325,7 +6330,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6360,10 +6365,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6386,13 +6391,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6443,7 +6448,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6452,7 +6457,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6464,10 +6469,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6478,10 +6483,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6504,13 +6509,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6561,7 +6566,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6570,7 +6575,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6582,10 +6587,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6596,10 +6601,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6625,16 +6630,16 @@
         <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6662,10 +6667,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6683,7 +6688,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6701,13 +6706,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6718,10 +6723,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6747,16 +6752,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6781,13 +6786,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6805,7 +6810,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6823,13 +6828,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6840,10 +6845,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6866,17 +6871,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6925,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6949,7 +6954,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6960,10 +6965,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6986,13 +6991,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7043,7 +7048,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7064,10 +7069,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7078,10 +7083,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7104,16 +7109,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7163,7 +7168,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7184,10 +7189,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7198,10 +7203,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7224,16 +7229,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7283,7 +7288,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7304,10 +7309,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7318,10 +7323,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7344,19 +7349,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7393,7 +7398,7 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7403,7 +7408,7 @@
         <v>198</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7424,10 +7429,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7438,10 +7443,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7464,13 +7469,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7521,7 +7526,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7545,7 +7550,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7556,10 +7561,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7588,7 +7593,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7641,7 +7646,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7665,7 +7670,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7676,14 +7681,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7705,10 +7710,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7763,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7798,10 +7803,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7827,16 +7832,16 @@
         <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7861,13 +7866,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7885,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7903,16 +7908,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7920,10 +7925,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7946,19 +7951,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8007,7 +8012,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8025,27 +8030,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8071,16 +8076,16 @@
         <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8105,13 +8110,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8129,7 +8134,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8138,7 +8143,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8153,7 +8158,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8164,14 +8169,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8193,16 +8198,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8227,13 +8232,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8251,7 +8256,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8269,27 +8274,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8315,16 +8320,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8373,7 +8378,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8394,10 +8399,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8408,13 +8413,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
@@ -8436,19 +8441,19 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8497,7 +8502,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8518,10 +8523,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8532,10 +8537,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8558,13 +8563,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8615,7 +8620,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8639,7 +8644,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8650,10 +8655,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8682,7 +8687,7 @@
         <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>141</v>
@@ -8735,7 +8740,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8759,7 +8764,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8770,14 +8775,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8799,10 +8804,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>141</v>
@@ -8857,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8892,10 +8897,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8921,16 +8926,16 @@
         <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8940,7 +8945,7 @@
         <v>82</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>82</v>
@@ -8955,13 +8960,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8979,7 +8984,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>92</v>
@@ -8997,16 +9002,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9014,10 +9019,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9040,19 +9045,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9101,7 +9106,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9119,27 +9124,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9165,16 +9170,16 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9199,13 +9204,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9223,7 +9228,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9232,7 +9237,7 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>104</v>
@@ -9247,7 +9252,7 @@
         <v>135</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9258,14 +9263,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9287,16 +9292,16 @@
         <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9321,13 +9326,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9345,7 +9350,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9363,27 +9368,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9409,16 +9414,16 @@
         <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9467,7 +9472,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9488,10 +9493,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9502,13 +9507,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>82</v>
@@ -9530,19 +9535,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9591,7 +9596,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9612,10 +9617,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9626,10 +9631,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9652,13 +9657,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9709,7 +9714,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9733,7 +9738,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9744,10 +9749,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9776,7 +9781,7 @@
         <v>139</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>141</v>
@@ -9829,7 +9834,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9853,7 +9858,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9864,14 +9869,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9893,10 +9898,10 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>141</v>
@@ -9951,7 +9956,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9986,10 +9991,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10015,16 +10020,16 @@
         <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10034,7 +10039,7 @@
         <v>82</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>82</v>
@@ -10049,13 +10054,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10073,7 +10078,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>92</v>
@@ -10091,16 +10096,16 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10108,10 +10113,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10134,19 +10139,19 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10195,7 +10200,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10213,27 +10218,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10259,16 +10264,16 @@
         <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10293,13 +10298,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10317,7 +10322,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10326,7 +10331,7 @@
         <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10341,7 +10346,7 @@
         <v>135</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10352,14 +10357,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10381,16 +10386,16 @@
         <v>190</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10415,13 +10420,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10439,7 +10444,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10457,27 +10462,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10503,16 +10508,16 @@
         <v>83</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10561,7 +10566,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10582,10 +10587,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10596,13 +10601,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>82</v>
@@ -10624,19 +10629,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10685,7 +10690,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10706,10 +10711,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10720,10 +10725,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10746,13 +10751,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10803,7 +10808,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10827,7 +10832,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10838,10 +10843,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10870,7 +10875,7 @@
         <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>141</v>
@@ -10923,7 +10928,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10947,7 +10952,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10958,14 +10963,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10987,10 +10992,10 @@
         <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>141</v>
@@ -11045,7 +11050,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11080,10 +11085,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11109,16 +11114,16 @@
         <v>190</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11128,7 +11133,7 @@
         <v>82</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>82</v>
@@ -11143,13 +11148,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11167,7 +11172,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11185,16 +11190,16 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11202,10 +11207,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11228,19 +11233,19 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11289,7 +11294,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11307,27 +11312,27 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11353,16 +11358,16 @@
         <v>190</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11387,13 +11392,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11411,7 +11416,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11420,7 +11425,7 @@
         <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>104</v>
@@ -11435,7 +11440,7 @@
         <v>135</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11446,14 +11451,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11475,16 +11480,16 @@
         <v>190</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11509,13 +11514,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11533,7 +11538,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11551,27 +11556,27 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11597,16 +11602,16 @@
         <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11655,7 +11660,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11676,10 +11681,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11690,13 +11695,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>82</v>
@@ -11718,19 +11723,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11779,7 +11784,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11800,10 +11805,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11814,10 +11819,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11840,13 +11845,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11897,7 +11902,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11921,7 +11926,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -11932,10 +11937,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11964,7 +11969,7 @@
         <v>139</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>141</v>
@@ -12017,7 +12022,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12041,7 +12046,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12052,14 +12057,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12081,10 +12086,10 @@
         <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>141</v>
@@ -12139,7 +12144,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12174,10 +12179,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12203,16 +12208,16 @@
         <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12222,7 +12227,7 @@
         <v>82</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>82</v>
@@ -12237,13 +12242,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12261,7 +12266,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>92</v>
@@ -12279,16 +12284,16 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
@@ -12296,10 +12301,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12322,19 +12327,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12383,7 +12388,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12401,27 +12406,27 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12447,16 +12452,16 @@
         <v>190</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12481,13 +12486,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12505,7 +12510,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12514,7 +12519,7 @@
         <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>104</v>
@@ -12529,7 +12534,7 @@
         <v>135</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12540,14 +12545,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12569,16 +12574,16 @@
         <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12603,13 +12608,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12627,7 +12632,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12645,27 +12650,27 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12691,16 +12696,16 @@
         <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12749,7 +12754,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12770,10 +12775,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -609,6 +609,9 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -622,7 +625,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -650,7 +653,12 @@
     <t>us-core</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
@@ -659,19 +667,16 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:survey</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Indicates the person-centered outcomes observation is of type survey</t>
-  </si>
-  <si>
-    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
+    <t>Observation.category:wellbeing-domain</t>
+  </si>
+  <si>
+    <t>wellbeing-domain</t>
+  </si>
+  <si>
+    <t>Well-Being domain category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -681,7 +686,7 @@
 </t>
   </si>
   <si>
-    <t>Focus area for What Matters assessment</t>
+    <t>Assessment rating for this category of well-being</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -693,7 +698,15 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
+    &lt;code value="wellbeing-assessment"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1417,9 +1430,6 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
@@ -1487,7 +1497,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
     &lt;code value="now-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1535,7 +1545,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
     &lt;code value="now-reasons"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1579,7 +1589,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
     &lt;code value="future-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1620,7 +1630,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
     &lt;code value="future-changes"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1966,7 +1976,7 @@
   <cols>
     <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.34375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3710,7 +3720,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3725,19 +3735,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3765,23 +3775,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3808,10 +3818,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3819,23 +3829,23 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3847,19 +3857,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3869,7 +3879,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3887,10 +3897,10 @@
         <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3932,10 +3942,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3943,13 +3953,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
@@ -3959,7 +3969,7 @@
         <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3971,19 +3981,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4008,11 +4018,9 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
         <v>210</v>
       </c>
@@ -4056,10 +4064,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -4093,7 +4101,7 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>213</v>
@@ -4115,7 +4123,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -4134,7 +4142,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4167,30 +4175,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4213,19 +4221,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4274,7 +4282,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4289,19 +4297,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4309,10 +4317,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4335,16 +4343,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4394,7 +4402,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4415,13 +4423,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4429,14 +4437,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4455,19 +4463,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4516,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4531,19 +4539,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4551,14 +4559,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4577,19 +4585,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4638,7 +4646,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4653,19 +4661,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4673,10 +4681,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4699,16 +4707,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4758,7 +4766,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4779,13 +4787,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4793,10 +4801,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4819,17 +4827,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4878,7 +4886,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4893,19 +4901,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4913,10 +4921,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4939,19 +4947,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5000,7 +5008,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5009,7 +5017,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -5018,27 +5026,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5061,19 +5069,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5098,13 +5106,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5122,7 +5130,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5131,7 +5139,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -5146,7 +5154,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5157,14 +5165,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5183,19 +5191,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5220,13 +5228,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5244,7 +5252,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5262,27 +5270,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5305,19 +5313,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5366,7 +5374,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5387,10 +5395,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5401,10 +5409,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5427,16 +5435,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5462,13 +5470,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5486,7 +5494,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5504,27 +5512,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5547,19 +5555,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5584,13 +5592,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5608,7 +5616,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5629,10 +5637,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5643,10 +5651,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5669,16 +5677,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5728,7 +5736,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5746,27 +5754,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5789,16 +5797,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5848,7 +5856,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5866,27 +5874,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5909,19 +5917,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5970,7 +5978,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5982,7 +5990,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5991,10 +5999,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6005,10 +6013,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6031,13 +6039,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6088,7 +6096,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6112,7 +6120,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6123,10 +6131,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6155,7 +6163,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6208,7 +6216,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6232,7 +6240,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6243,14 +6251,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6272,10 +6280,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6330,7 +6338,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6365,10 +6373,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6391,13 +6399,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6448,7 +6456,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6457,7 +6465,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6469,10 +6477,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6483,10 +6491,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6509,13 +6517,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6566,7 +6574,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6575,7 +6583,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6587,10 +6595,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6601,10 +6609,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6627,19 +6635,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6667,10 +6675,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6688,7 +6696,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6706,13 +6714,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6723,10 +6731,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6749,19 +6757,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6786,13 +6794,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6810,7 +6818,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6828,13 +6836,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6845,10 +6853,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6871,17 +6879,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6930,7 +6938,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6954,7 +6962,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6965,10 +6973,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6991,13 +6999,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7048,7 +7056,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7069,10 +7077,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7083,10 +7091,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7109,16 +7117,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7168,7 +7176,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7189,10 +7197,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7203,10 +7211,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7229,16 +7237,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7288,7 +7296,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7309,10 +7317,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7323,10 +7331,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7349,19 +7357,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7398,17 +7406,17 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7429,10 +7437,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7443,10 +7451,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7469,13 +7477,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7526,7 +7534,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7550,7 +7558,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7561,10 +7569,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7593,7 +7601,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7646,7 +7654,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7670,7 +7678,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7681,14 +7689,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7710,10 +7718,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7768,7 +7776,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7803,10 +7811,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7829,16 +7837,16 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>216</v>
@@ -7866,13 +7874,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7890,7 +7898,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7911,13 +7919,13 @@
         <v>448</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7951,19 +7959,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8033,16 +8041,16 @@
         <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -8073,7 +8081,7 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>454</v>
@@ -8085,7 +8093,7 @@
         <v>456</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8110,13 +8118,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8143,7 +8151,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8158,7 +8166,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8176,7 +8184,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8195,19 +8203,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8232,13 +8240,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8274,19 +8282,19 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -8326,10 +8334,10 @@
         <v>460</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8399,10 +8407,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8416,7 +8424,7 @@
         <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>462</v>
@@ -8441,19 +8449,19 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8502,7 +8510,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8523,10 +8531,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8540,7 +8548,7 @@
         <v>464</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8563,13 +8571,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8620,7 +8628,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8644,7 +8652,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8658,7 +8666,7 @@
         <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8687,7 +8695,7 @@
         <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>141</v>
@@ -8740,7 +8748,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8764,7 +8772,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8778,11 +8786,11 @@
         <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8804,10 +8812,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>141</v>
@@ -8862,7 +8870,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8900,7 +8908,7 @@
         <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8923,16 +8931,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>468</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>216</v>
@@ -8960,13 +8968,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8984,7 +8992,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>92</v>
@@ -9005,13 +9013,13 @@
         <v>448</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9051,13 +9059,13 @@
         <v>472</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>451</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9127,16 +9135,16 @@
         <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -9167,7 +9175,7 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>454</v>
@@ -9179,7 +9187,7 @@
         <v>456</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9204,13 +9212,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9237,7 +9245,7 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>104</v>
@@ -9252,7 +9260,7 @@
         <v>135</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9270,7 +9278,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9289,19 +9297,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9326,13 +9334,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9368,19 +9376,19 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -9420,10 +9428,10 @@
         <v>460</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9493,10 +9501,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9510,7 +9518,7 @@
         <v>476</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>477</v>
@@ -9535,19 +9543,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>463</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9596,7 +9604,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9617,10 +9625,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9634,7 +9642,7 @@
         <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9657,13 +9665,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9714,7 +9722,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9738,7 +9746,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9752,7 +9760,7 @@
         <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9781,7 +9789,7 @@
         <v>139</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>141</v>
@@ -9834,7 +9842,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9858,7 +9866,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9872,11 +9880,11 @@
         <v>480</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9898,10 +9906,10 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>141</v>
@@ -9956,7 +9964,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9994,7 +10002,7 @@
         <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10017,16 +10025,16 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>482</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>216</v>
@@ -10054,13 +10062,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10078,7 +10086,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>92</v>
@@ -10099,13 +10107,13 @@
         <v>448</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10139,19 +10147,19 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>451</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10221,16 +10229,16 @@
         <v>452</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -10261,7 +10269,7 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>454</v>
@@ -10273,7 +10281,7 @@
         <v>456</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10298,13 +10306,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10331,7 +10339,7 @@
         <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10346,7 +10354,7 @@
         <v>135</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10364,7 +10372,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10383,19 +10391,19 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10420,13 +10428,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10462,19 +10470,19 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" hidden="true">
@@ -10514,10 +10522,10 @@
         <v>460</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10587,10 +10595,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10604,7 +10612,7 @@
         <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>490</v>
@@ -10629,19 +10637,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10690,7 +10698,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10711,10 +10719,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10728,7 +10736,7 @@
         <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10751,13 +10759,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10808,7 +10816,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10832,7 +10840,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10846,7 +10854,7 @@
         <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10875,7 +10883,7 @@
         <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>141</v>
@@ -10928,7 +10936,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10952,7 +10960,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10966,11 +10974,11 @@
         <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10992,10 +11000,10 @@
         <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>141</v>
@@ -11050,7 +11058,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11088,7 +11096,7 @@
         <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11111,16 +11119,16 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>216</v>
@@ -11148,13 +11156,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11172,7 +11180,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11193,13 +11201,13 @@
         <v>448</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11239,13 +11247,13 @@
         <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>451</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11315,16 +11323,16 @@
         <v>452</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -11355,7 +11363,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>454</v>
@@ -11367,7 +11375,7 @@
         <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11392,13 +11400,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11425,7 +11433,7 @@
         <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>104</v>
@@ -11440,7 +11448,7 @@
         <v>135</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11458,7 +11466,7 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11477,19 +11485,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11514,13 +11522,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11556,19 +11564,19 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" hidden="true">
@@ -11608,10 +11616,10 @@
         <v>460</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11681,10 +11689,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11698,7 +11706,7 @@
         <v>501</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>502</v>
@@ -11723,19 +11731,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11784,7 +11792,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11805,10 +11813,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11822,7 +11830,7 @@
         <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11845,13 +11853,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11902,7 +11910,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11926,7 +11934,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -11940,7 +11948,7 @@
         <v>504</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11969,7 +11977,7 @@
         <v>139</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>141</v>
@@ -12022,7 +12030,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12046,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12060,11 +12068,11 @@
         <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12086,10 +12094,10 @@
         <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>141</v>
@@ -12144,7 +12152,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12182,7 +12190,7 @@
         <v>506</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12205,16 +12213,16 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>507</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>216</v>
@@ -12242,13 +12250,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12266,7 +12274,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>92</v>
@@ -12287,13 +12295,13 @@
         <v>448</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
@@ -12327,19 +12335,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>485</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>451</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12409,16 +12417,16 @@
         <v>452</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -12449,7 +12457,7 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>454</v>
@@ -12461,7 +12469,7 @@
         <v>456</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12486,13 +12494,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12519,7 +12527,7 @@
         <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>104</v>
@@ -12534,7 +12542,7 @@
         <v>135</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12552,7 +12560,7 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12571,19 +12579,19 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12608,13 +12616,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12650,19 +12658,19 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" hidden="true">
@@ -12702,10 +12710,10 @@
         <v>460</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12775,10 +12783,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -609,14 +609,11 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>(USCDI) Classification of  type of observation</t>
+    <t>Well-Being observation category</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>us-core</t>
+  </si>
+  <si>
+    <t>(USCDI) Classification of  type of observation</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -667,35 +667,10 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:wellbeing-domain</t>
-  </si>
-  <si>
-    <t>wellbeing-domain</t>
-  </si>
-  <si>
-    <t>Well-Being domain category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Assessment rating for this category of well-being</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+    <t>Observation.category:wellbeing-category</t>
+  </si>
+  <si>
+    <t>wellbeing-category</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -706,7 +681,26 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>(USCDI) Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1428,6 +1422,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1976,7 +1973,7 @@
   <cols>
     <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3735,19 +3732,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3775,23 +3772,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3818,10 +3815,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3829,13 +3826,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3857,19 +3854,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3942,10 +3939,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3966,10 +3963,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3981,19 +3978,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4003,7 +4000,7 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>82</v>
@@ -4020,9 +4017,11 @@
       <c r="X17" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4064,10 +4063,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -4075,14 +4074,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4101,19 +4100,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4123,7 +4122,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -4142,7 +4141,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4160,7 +4159,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4175,30 +4174,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4221,19 +4220,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4282,7 +4281,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4297,19 +4296,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4317,10 +4316,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4343,16 +4342,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4402,7 +4401,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4423,13 +4422,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4437,14 +4436,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4463,19 +4462,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4524,7 +4523,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4539,19 +4538,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4559,14 +4558,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4585,19 +4584,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4646,7 +4645,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4661,19 +4660,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4681,10 +4680,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4707,16 +4706,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4766,7 +4765,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4787,13 +4786,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4801,10 +4800,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4827,17 +4826,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4886,7 +4885,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4901,19 +4900,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4921,10 +4920,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4947,19 +4946,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5008,7 +5007,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5017,7 +5016,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -5026,27 +5025,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5069,19 +5068,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5106,14 +5105,14 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5139,7 +5138,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -5154,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5165,14 +5164,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5191,19 +5190,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5228,13 +5227,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5252,7 +5251,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5270,27 +5269,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5313,19 +5312,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5374,7 +5373,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5395,10 +5394,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5409,10 +5408,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5435,16 +5434,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5470,14 +5469,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5512,27 +5511,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5555,19 +5554,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5592,13 +5591,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5616,7 +5615,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5637,10 +5636,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5651,10 +5650,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5677,16 +5676,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5736,7 +5735,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5754,27 +5753,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5797,16 +5796,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5856,7 +5855,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5874,27 +5873,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5917,19 +5916,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5978,7 +5977,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5990,19 +5989,19 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6013,10 +6012,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6039,13 +6038,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6096,7 +6095,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6120,7 +6119,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6131,10 +6130,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6163,7 +6162,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6216,7 +6215,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6240,7 +6239,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6251,14 +6250,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6280,10 +6279,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6338,7 +6337,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6373,10 +6372,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6399,13 +6398,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6456,7 +6455,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6465,7 +6464,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6477,10 +6476,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6491,10 +6490,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6517,13 +6516,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6574,7 +6573,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6583,7 +6582,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6595,10 +6594,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6609,10 +6608,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6635,19 +6634,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6675,10 +6674,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6696,7 +6695,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6714,13 +6713,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6731,10 +6730,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6757,19 +6756,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6794,13 +6793,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6818,7 +6817,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6836,13 +6835,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6853,10 +6852,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6879,17 +6878,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6938,7 +6937,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6962,7 +6961,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6973,10 +6972,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6999,13 +6998,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7056,7 +7055,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7077,10 +7076,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7091,10 +7090,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7117,16 +7116,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7176,7 +7175,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7197,10 +7196,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7211,10 +7210,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7237,16 +7236,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7296,7 +7295,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7317,10 +7316,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7331,10 +7330,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7357,19 +7356,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7406,17 +7405,17 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7437,10 +7436,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7451,10 +7450,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7477,13 +7476,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7534,7 +7533,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7558,7 +7557,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7569,10 +7568,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7601,7 +7600,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7654,7 +7653,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7678,7 +7677,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7689,14 +7688,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7718,10 +7717,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7776,7 +7775,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7811,10 +7810,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7837,19 +7836,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7874,13 +7873,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7898,7 +7897,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7916,16 +7915,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7933,10 +7932,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7959,19 +7958,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8020,7 +8019,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8038,27 +8037,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8081,19 +8080,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8118,14 +8117,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8151,7 +8150,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8166,7 +8165,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8177,14 +8176,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8203,19 +8202,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8240,13 +8239,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8264,7 +8263,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8282,27 +8281,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8328,16 +8327,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8386,7 +8385,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8407,10 +8406,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8421,13 +8420,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
@@ -8449,19 +8448,19 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8510,7 +8509,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8531,10 +8530,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8545,10 +8544,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8571,13 +8570,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8628,7 +8627,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8652,7 +8651,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8663,10 +8662,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8695,7 +8694,7 @@
         <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>141</v>
@@ -8748,7 +8747,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8772,7 +8771,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8783,14 +8782,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8812,10 +8811,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>141</v>
@@ -8870,7 +8869,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8905,10 +8904,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8931,19 +8930,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8953,7 +8952,7 @@
         <v>82</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>82</v>
@@ -8968,13 +8967,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8992,7 +8991,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>92</v>
@@ -9010,16 +9009,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9027,10 +9026,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9053,19 +9052,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="M59" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9114,7 +9113,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9132,27 +9131,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9175,19 +9174,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9212,14 +9211,14 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9245,7 +9244,7 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>104</v>
@@ -9260,7 +9259,7 @@
         <v>135</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9271,14 +9270,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9297,19 +9296,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9334,13 +9333,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9358,7 +9357,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9376,27 +9375,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9422,16 +9421,16 @@
         <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9480,7 +9479,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9501,10 +9500,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9515,13 +9514,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>82</v>
@@ -9543,19 +9542,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9604,7 +9603,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9625,10 +9624,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9639,10 +9638,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9665,13 +9664,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9722,7 +9721,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9746,7 +9745,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9757,10 +9756,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9789,7 +9788,7 @@
         <v>139</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>141</v>
@@ -9842,7 +9841,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9866,7 +9865,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9877,14 +9876,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9906,10 +9905,10 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>141</v>
@@ -9964,7 +9963,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9999,10 +9998,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10025,19 +10024,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10047,7 +10046,7 @@
         <v>82</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>82</v>
@@ -10062,13 +10061,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10086,7 +10085,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>92</v>
@@ -10104,16 +10103,16 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10121,10 +10120,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10147,19 +10146,19 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10208,7 +10207,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10226,27 +10225,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10269,19 +10268,19 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N69" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="O69" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10306,14 +10305,14 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10339,7 +10338,7 @@
         <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10354,7 +10353,7 @@
         <v>135</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10365,14 +10364,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10391,19 +10390,19 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10428,13 +10427,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10452,7 +10451,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10470,27 +10469,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10516,16 +10515,16 @@
         <v>83</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10574,7 +10573,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10595,10 +10594,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10609,13 +10608,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>82</v>
@@ -10637,19 +10636,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10698,7 +10697,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10719,10 +10718,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10733,10 +10732,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10759,13 +10758,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10816,7 +10815,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10840,7 +10839,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10851,10 +10850,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10883,7 +10882,7 @@
         <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>141</v>
@@ -10936,7 +10935,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10960,7 +10959,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10971,14 +10970,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11000,10 +10999,10 @@
         <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>141</v>
@@ -11058,7 +11057,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11093,10 +11092,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11119,19 +11118,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11141,7 +11140,7 @@
         <v>82</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>82</v>
@@ -11156,13 +11155,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11180,7 +11179,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11198,16 +11197,16 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11215,10 +11214,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11241,19 +11240,19 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="M77" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O77" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11302,7 +11301,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11320,27 +11319,27 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11363,19 +11362,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="O78" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11400,14 +11399,14 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11433,7 +11432,7 @@
         <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>104</v>
@@ -11448,7 +11447,7 @@
         <v>135</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11459,14 +11458,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11485,19 +11484,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11522,13 +11521,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11546,7 +11545,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11564,27 +11563,27 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP79" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11610,16 +11609,16 @@
         <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="N80" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11668,7 +11667,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11689,10 +11688,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11703,13 +11702,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>82</v>
@@ -11731,19 +11730,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11792,7 +11791,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11813,10 +11812,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11827,10 +11826,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11853,13 +11852,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11910,7 +11909,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11934,7 +11933,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -11945,10 +11944,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11977,7 +11976,7 @@
         <v>139</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>141</v>
@@ -12030,7 +12029,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12054,7 +12053,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12065,14 +12064,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12094,10 +12093,10 @@
         <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>141</v>
@@ -12152,7 +12151,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12187,10 +12186,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12213,19 +12212,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12235,7 +12234,7 @@
         <v>82</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>82</v>
@@ -12250,13 +12249,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12274,7 +12273,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>92</v>
@@ -12292,16 +12291,16 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
@@ -12309,10 +12308,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12335,19 +12334,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12396,7 +12395,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12414,27 +12413,27 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12457,19 +12456,19 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="O87" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12494,14 +12493,14 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y87" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12518,7 +12517,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12527,7 +12526,7 @@
         <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>104</v>
@@ -12542,7 +12541,7 @@
         <v>135</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12553,14 +12552,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12579,19 +12578,19 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12616,13 +12615,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12640,7 +12639,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12658,27 +12657,27 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12704,16 +12703,16 @@
         <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12762,7 +12761,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12783,10 +12782,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assessment observation for one aspect of What Matters Most to a person, with component values rating where a person is now and where they would like to be in the future.</t>
+    <t>Assessment observation for one aspect of What Matters Most to a person, with either free-text description or component values rating where a person is now and where they would like to be in the future.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -613,7 +613,7 @@
 </t>
   </si>
   <si>
-    <t>Well-Being observation category</t>
+    <t>(USCDI) Classification of  type of observation</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -648,9 +648,6 @@
   </si>
   <si>
     <t>us-core</t>
-  </si>
-  <si>
-    <t>(USCDI) Classification of  type of observation</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -667,18 +664,16 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:wellbeing-category</t>
-  </si>
-  <si>
-    <t>wellbeing-category</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
-    &lt;code value="wellbeing-assessment"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Observation.category:what-matters</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters observation category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -897,11 +892,11 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>(USCDI) Actual result</t>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Description of what matters for this well-being domain</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1170,10 +1165,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1432,6 +1423,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1973,7 +1968,7 @@
   <cols>
     <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3857,7 +3852,7 @@
         <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>192</v>
@@ -3876,7 +3871,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3894,10 +3889,10 @@
         <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3950,13 +3945,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
@@ -3981,7 +3976,7 @@
         <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>192</v>
@@ -4000,28 +3995,26 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -6038,13 +6031,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6095,7 +6088,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6119,7 +6112,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6130,10 +6123,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6162,7 +6155,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6215,7 +6208,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6239,7 +6232,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6250,14 +6243,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6279,10 +6272,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6337,7 +6330,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6372,10 +6365,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6398,13 +6391,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6455,7 +6448,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6464,7 +6457,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6476,10 +6469,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6490,10 +6483,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6516,13 +6509,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6573,7 +6566,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6582,7 +6575,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6594,10 +6587,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6608,10 +6601,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6637,16 +6630,16 @@
         <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6674,11 +6667,11 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6695,7 +6688,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6713,10 +6706,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>309</v>
@@ -6730,10 +6723,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6759,16 +6752,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6796,11 +6789,11 @@
         <v>323</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6817,7 +6810,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6835,10 +6828,10 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>309</v>
@@ -6852,10 +6845,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6878,17 +6871,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6937,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6961,7 +6954,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6972,10 +6965,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6998,13 +6991,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7055,7 +7048,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7076,10 +7069,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7090,10 +7083,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7116,16 +7109,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7175,7 +7168,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7196,10 +7189,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7210,10 +7203,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7236,16 +7229,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7295,7 +7288,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7316,10 +7309,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7330,10 +7323,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7359,16 +7352,16 @@
         <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7405,7 +7398,7 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7415,7 +7408,7 @@
         <v>198</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7436,10 +7429,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7450,10 +7443,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7476,13 +7469,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7533,7 +7526,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7557,7 +7550,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7568,10 +7561,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7600,7 +7593,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7653,7 +7646,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7677,7 +7670,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7688,14 +7681,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7717,10 +7710,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7775,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7810,10 +7803,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7839,13 +7832,13 @@
         <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>215</v>
@@ -7876,11 +7869,11 @@
         <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7897,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7915,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>219</v>
@@ -7932,10 +7925,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7958,7 +7951,7 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>449</v>
@@ -8019,7 +8012,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8423,7 +8416,7 @@
         <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>461</v>
@@ -8454,13 +8447,13 @@
         <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8509,7 +8502,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8530,10 +8523,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8547,7 +8540,7 @@
         <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8570,13 +8563,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8627,7 +8620,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8651,7 +8644,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8665,7 +8658,7 @@
         <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8694,7 +8687,7 @@
         <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>141</v>
@@ -8747,7 +8740,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8771,7 +8764,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8785,11 +8778,11 @@
         <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8811,10 +8804,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>141</v>
@@ -8869,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8907,7 +8900,7 @@
         <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8936,10 +8929,10 @@
         <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>215</v>
@@ -8970,11 +8963,11 @@
         <v>323</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
       </c>
@@ -8991,7 +8984,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>92</v>
@@ -9009,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>219</v>
@@ -9029,7 +9022,7 @@
         <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9113,7 +9106,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9517,7 +9510,7 @@
         <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>476</v>
@@ -9548,13 +9541,13 @@
         <v>462</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9603,7 +9596,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9624,10 +9617,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9641,7 +9634,7 @@
         <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9664,13 +9657,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9721,7 +9714,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9738,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9759,7 +9752,7 @@
         <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9788,7 +9781,7 @@
         <v>139</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>141</v>
@@ -9841,7 +9834,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9865,7 +9858,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9879,11 +9872,11 @@
         <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9905,10 +9898,10 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>141</v>
@@ -9963,7 +9956,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10001,7 +9994,7 @@
         <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10030,10 +10023,10 @@
         <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>215</v>
@@ -10064,11 +10057,11 @@
         <v>323</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10085,7 +10078,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>92</v>
@@ -10103,7 +10096,7 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>219</v>
@@ -10123,7 +10116,7 @@
         <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10146,7 +10139,7 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>484</v>
@@ -10207,7 +10200,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10611,7 +10604,7 @@
         <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>489</v>
@@ -10642,13 +10635,13 @@
         <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10697,7 +10690,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10718,10 +10711,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10735,7 +10728,7 @@
         <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10758,13 +10751,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10815,7 +10808,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10839,7 +10832,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10853,7 +10846,7 @@
         <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10882,7 +10875,7 @@
         <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>141</v>
@@ -10935,7 +10928,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10959,7 +10952,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10973,11 +10966,11 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10999,10 +10992,10 @@
         <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>141</v>
@@ -11057,7 +11050,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11095,7 +11088,7 @@
         <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11124,10 +11117,10 @@
         <v>494</v>
       </c>
       <c r="M76" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>215</v>
@@ -11158,11 +11151,11 @@
         <v>323</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11179,7 +11172,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11197,7 +11190,7 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>219</v>
@@ -11217,7 +11210,7 @@
         <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11301,7 +11294,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11705,7 +11698,7 @@
         <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>501</v>
@@ -11736,13 +11729,13 @@
         <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11791,7 +11784,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11812,10 +11805,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11829,7 +11822,7 @@
         <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11852,13 +11845,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11909,7 +11902,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11933,7 +11926,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -11947,7 +11940,7 @@
         <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11976,7 +11969,7 @@
         <v>139</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>141</v>
@@ -12029,7 +12022,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12053,7 +12046,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12067,11 +12060,11 @@
         <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12093,10 +12086,10 @@
         <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>141</v>
@@ -12151,7 +12144,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12189,7 +12182,7 @@
         <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12218,10 +12211,10 @@
         <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>215</v>
@@ -12252,11 +12245,11 @@
         <v>323</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12273,7 +12266,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>92</v>
@@ -12291,7 +12284,7 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>219</v>
@@ -12311,7 +12304,7 @@
         <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12334,7 +12327,7 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>484</v>
@@ -12395,7 +12388,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-assessment.xlsx
+++ b/StructureDefinition-pco-what-matters-assessment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assessment observation for one element of a person's well-being, with a free-text description, coded value, or component values rating where a person is now and where they would like to be in the future.</t>
+    <t>Assessment observation for What Matters to a person. May be a panel assessment with member observations.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -710,7 +710,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-codes-example</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -918,11 +918,11 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-string</t>
-  </si>
-  <si>
-    <t>Free-text or coded assessment of this well-being domain</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>(USCDI) Actual result</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1398,7 +1398,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Components representing Well-Being rating</t>
+    <t>Component results</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1408,10 +1408,6 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code}
-</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1454,10 +1450,6 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -1494,183 +1486,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating</t>
-  </si>
-  <si>
-    <t>nowRating</t>
-  </si>
-  <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.id</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.code</t>
-  </si>
-  <si>
-    <t>Where are you now?</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
-    &lt;code value="now-rating"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Rating on scale from low to high</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:nowRating.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons</t>
-  </si>
-  <si>
-    <t>nowReasons</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.id</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.code</t>
-  </si>
-  <si>
-    <t>What are the reasons you chose this number?</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
-    &lt;code value="now-reasons"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.value[x]</t>
-  </si>
-  <si>
-    <t>Reasons for your rating</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:nowReasons.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating</t>
-  </si>
-  <si>
-    <t>futureRating</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.id</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.code</t>
-  </si>
-  <si>
-    <t>Where would you like to be?</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
-    &lt;code value="future-rating"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:futureRating.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges</t>
-  </si>
-  <si>
-    <t>futureChanges</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.id</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.code</t>
-  </si>
-  <si>
-    <t>What changes could you make to help you get there?</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
-    &lt;code value="future-changes"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:futureChanges.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP90"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1999,7 +1814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7557,14 +7372,16 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>438</v>
@@ -7588,10 +7405,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7602,10 +7419,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7720,10 +7537,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7840,10 +7657,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7962,10 +7779,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7991,13 +7808,13 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>220</v>
@@ -8028,11 +7845,11 @@
         <v>331</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8049,7 +7866,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>92</v>
@@ -8067,7 +7884,7 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>224</v>
@@ -8084,10 +7901,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8110,16 +7927,16 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>289</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>291</v>
@@ -8171,7 +7988,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8189,7 +8006,7 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>294</v>
@@ -8206,10 +8023,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8235,13 +8052,13 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>301</v>
@@ -8293,7 +8110,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8302,7 +8119,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8328,10 +8145,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8415,7 +8232,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8450,10 +8267,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8479,10 +8296,10 @@
         <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>369</v>
@@ -8537,7 +8354,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8570,4384 +8387,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP90">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12957,7 +8398,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
